--- a/xlsx_files/Green classroom.xlsx
+++ b/xlsx_files/Green classroom.xlsx
@@ -545,31 +545,31 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>CS SENIOR: INFORMATION SECURITY
+          <t>CS FRESHMEN: PHYSICS II
 09:00-10:30</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>CS SENIOR: SAFETY MANAGEMENT
+          <t>CS FRESHMEN: RUSSIAN LANGUAGE (INTERMEDIATE LEVEL)
 09:00-10:30</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>CS SENIOR: INFORMATION SECURITY
+          <t>CS FRESHMEN: PHYSICS II
 09:00-10:30</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>CM FRESHMEN: RUSSIAN LANGUAGE (BEGINNER LEVEL)
-09:00-10:30</t>
+          <t>CS SOPHOMORE: HISTORY OF KYRGYZSTAN
+09:00-10:00</t>
         </is>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>CS SENIOR: INFORMATION SECURITY
+          <t>CS FRESHMEN: PHYSICS II
 09:00-10:30</t>
         </is>
       </c>
@@ -607,7 +607,7 @@
       <c r="B9" s="6" t="n"/>
       <c r="C9" s="6" t="n"/>
       <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
+      <c r="E9" s="7" t="n"/>
       <c r="F9" s="6" t="n"/>
     </row>
     <row r="10">
@@ -619,7 +619,6 @@
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
-      <c r="E10" s="6" t="n"/>
       <c r="F10" s="6" t="n"/>
     </row>
     <row r="11">
@@ -631,7 +630,6 @@
       <c r="B11" s="7" t="n"/>
       <c r="C11" s="7" t="n"/>
       <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
       <c r="F11" s="7" t="n"/>
     </row>
     <row r="12">
@@ -656,31 +654,31 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>CS SENIOR: MODELING &amp; SIMULATION
+          <t>CS SOPHOMORE: DIGITAL LOGIC &amp; DESIGN
 11:00-12:30</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>CS SENIOR: FINAL YEAR PROJECT II
+          <t>CS FRESHMEN: SOCIOLOGY
 11:00-12:30</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>CS SENIOR: MODELING &amp; SIMULATION
+          <t>CS SOPHOMORE: DIGITAL LOGIC &amp; DESIGN
 11:00-12:30</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>CM FRESHMEN: RUSSIAN LANGUAGE (ELEMENTARY LEVEL)
+          <t>CS JUNIOR: OPERATING SYSTEMS AND SYSTEM PROGRAMMING
 11:00-12:30</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>CS SENIOR: MODELING &amp; SIMULATION
+          <t>CS SOPHOMORE: DIGITAL LOGIC &amp; DESIGN
 11:00-12:30</t>
         </is>
       </c>
@@ -795,31 +793,31 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>CM FRESHMEN: MATHEMATICS II
+          <t>CS SOPHOMORE: DATA STRUCTURE AND ALGORITHMS
 14:00-15:30</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>CM FRESHMEN: ENGLISH WRITING FOR MEDIA
+          <t>CS SOPHOMORE: DATABASE MANAGEMENT SYSTEMS
 14:00-15:30</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>CM FRESHMEN: MATHEMATICS II
+          <t>CS SOPHOMORE: DATA STRUCTURE AND ALGORITHMS
 14:00-15:30</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>CM FRESHMEN: RUSSIAN LANGUAGE (INTERMEDIATE LEVEL)
+          <t>CS JUNIOR: MACHINE LEARNING
 14:00-15:30</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>CM FRESHMEN: MATHEMATICS II
+          <t>CS SOPHOMORE: DATA STRUCTURE AND ALGORITHMS
 14:00-15:30</t>
         </is>
       </c>
@@ -906,31 +904,31 @@
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>CM SOPHOMORE: INTRODUCTION TO MACROECONOMICS
+          <t>CS SOPHOMORE: LINEAR ALGEBRA
 16:00-17:30</t>
         </is>
       </c>
       <c r="C34" s="5" t="inlineStr">
         <is>
-          <t>CM FRESHMEN: RUSSIAN LANGUAGE (BEGINNER LEVEL)
+          <t>CS SOPHOMORE: HISTORY OF KYRGYZSTAN
+16:00-17:00</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>CS SOPHOMORE: LINEAR ALGEBRA
 16:00-17:30</t>
         </is>
       </c>
-      <c r="D34" s="5" t="inlineStr">
-        <is>
-          <t>CM SOPHOMORE: INTRODUCTION TO MACROECONOMICS
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>CS JUNIOR: COMPUTER GRAPHICS
 16:00-17:30</t>
         </is>
       </c>
-      <c r="E34" s="5" t="inlineStr">
-        <is>
-          <t>CM FRESHMEN: SOCIOLOGY
-16:00-17:30</t>
-        </is>
-      </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>CM SOPHOMORE: INTRODUCTION TO MACROECONOMICS
+          <t>CS SOPHOMORE: LINEAR ALGEBRA
 16:00-17:30</t>
         </is>
       </c>
@@ -966,7 +964,7 @@
         </is>
       </c>
       <c r="B37" s="6" t="n"/>
-      <c r="C37" s="6" t="n"/>
+      <c r="C37" s="7" t="n"/>
       <c r="D37" s="6" t="n"/>
       <c r="E37" s="6" t="n"/>
       <c r="F37" s="6" t="n"/>
@@ -978,7 +976,6 @@
         </is>
       </c>
       <c r="B38" s="6" t="n"/>
-      <c r="C38" s="6" t="n"/>
       <c r="D38" s="6" t="n"/>
       <c r="E38" s="6" t="n"/>
       <c r="F38" s="6" t="n"/>
@@ -990,7 +987,6 @@
         </is>
       </c>
       <c r="B39" s="7" t="n"/>
-      <c r="C39" s="7" t="n"/>
       <c r="D39" s="7" t="n"/>
       <c r="E39" s="7" t="n"/>
       <c r="F39" s="7" t="n"/>
@@ -1187,7 +1183,6 @@
   </sheetData>
   <mergeCells count="27">
     <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C34:C39"/>
     <mergeCell ref="D26:D31"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:G1"/>
@@ -1202,15 +1197,16 @@
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E6:E9"/>
     <mergeCell ref="E34:E39"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="F26:F31"/>
-    <mergeCell ref="E6:E11"/>
     <mergeCell ref="B34:B39"/>
     <mergeCell ref="E26:E31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="F14:F19"/>
   </mergeCells>
